--- a/Code/Results/Cases/Case_10_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_10_0/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9654907643507796</v>
+        <v>0.9980342968504132</v>
       </c>
       <c r="D2">
-        <v>0.9909410204974283</v>
+        <v>1.020227969265646</v>
       </c>
       <c r="E2">
-        <v>0.9741685343264226</v>
+        <v>1.002342692684421</v>
       </c>
       <c r="F2">
-        <v>0.9404165842304503</v>
+        <v>1.01577072413432</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031922783209725</v>
+        <v>1.046782275101134</v>
       </c>
       <c r="J2">
-        <v>0.988755019043051</v>
+        <v>1.020273961143928</v>
       </c>
       <c r="K2">
-        <v>1.002528020873888</v>
+        <v>1.031412509617071</v>
       </c>
       <c r="L2">
-        <v>0.9859998716858105</v>
+        <v>1.013769486278824</v>
       </c>
       <c r="M2">
-        <v>0.952773535414713</v>
+        <v>1.0270146344435</v>
       </c>
       <c r="N2">
-        <v>0.9901591645818777</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.021722867195811</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.029952583034312</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.033281564413829</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9769377782726559</v>
+        <v>1.004825848129953</v>
       </c>
       <c r="D3">
-        <v>0.9997854397836442</v>
+        <v>1.024987077111015</v>
       </c>
       <c r="E3">
-        <v>0.9840772148632381</v>
+        <v>1.008245117487966</v>
       </c>
       <c r="F3">
-        <v>0.9551008209614458</v>
+        <v>1.020117966595953</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035901098305474</v>
+        <v>1.04870362624981</v>
       </c>
       <c r="J3">
-        <v>0.998077515803948</v>
+        <v>1.025185814633748</v>
       </c>
       <c r="K3">
-        <v>1.010421066684091</v>
+        <v>1.035309922471375</v>
       </c>
       <c r="L3">
-        <v>0.9949179680096973</v>
+        <v>1.018773576396162</v>
       </c>
       <c r="M3">
-        <v>0.9663423658622405</v>
+        <v>1.030499746114026</v>
       </c>
       <c r="N3">
-        <v>0.9994949003574809</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.026641696080985</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.032710850935052</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.036034737809099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9839783851463014</v>
+        <v>1.009085692487845</v>
       </c>
       <c r="D4">
-        <v>1.005228524489157</v>
+        <v>1.02797409762945</v>
       </c>
       <c r="E4">
-        <v>0.9901733654860836</v>
+        <v>1.011947723393485</v>
       </c>
       <c r="F4">
-        <v>0.9641161828189446</v>
+        <v>1.0228611408862</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03832812846267</v>
+        <v>1.049892112496765</v>
       </c>
       <c r="J4">
-        <v>1.003800998517013</v>
+        <v>1.028259806579122</v>
       </c>
       <c r="K4">
-        <v>1.015264252778433</v>
+        <v>1.037746227913403</v>
       </c>
       <c r="L4">
-        <v>1.000391854265676</v>
+        <v>1.021904057246478</v>
       </c>
       <c r="M4">
-        <v>0.9746678970722132</v>
+        <v>1.032691264740112</v>
       </c>
       <c r="N4">
-        <v>1.005226511072491</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.029720053447513</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.034445307860266</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.037758335329352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9868587388353943</v>
+        <v>1.010860465115729</v>
       </c>
       <c r="D5">
-        <v>1.007455842516652</v>
+        <v>1.029220952309471</v>
       </c>
       <c r="E5">
-        <v>0.992667586598993</v>
+        <v>1.013496114626757</v>
       </c>
       <c r="F5">
-        <v>0.9678015032635556</v>
+        <v>1.024004762544205</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039316173292202</v>
+        <v>1.050385349758661</v>
       </c>
       <c r="J5">
-        <v>1.006139972752384</v>
+        <v>1.029542504734472</v>
       </c>
       <c r="K5">
-        <v>1.017242743187997</v>
+        <v>1.038762958080233</v>
       </c>
       <c r="L5">
-        <v>1.002628475881025</v>
+        <v>1.023213751498289</v>
       </c>
       <c r="M5">
-        <v>0.9780699145954481</v>
+        <v>1.033604292718157</v>
       </c>
       <c r="N5">
-        <v>1.00756880691956</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.031004573181371</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.035167914055624</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.038484441739408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9873379146745873</v>
+        <v>1.011174354167958</v>
       </c>
       <c r="D6">
-        <v>1.00782640305464</v>
+        <v>1.029443916600213</v>
       </c>
       <c r="E6">
-        <v>0.9930825358488197</v>
+        <v>1.013776903854914</v>
       </c>
       <c r="F6">
-        <v>0.9684144476851116</v>
+        <v>1.024203495954631</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039480255224132</v>
+        <v>1.050474980873582</v>
       </c>
       <c r="J6">
-        <v>1.006528934323711</v>
+        <v>1.029773736564012</v>
       </c>
       <c r="K6">
-        <v>1.017571711774972</v>
+        <v>1.038947209148999</v>
       </c>
       <c r="L6">
-        <v>1.003000395017314</v>
+        <v>1.023454325624266</v>
       </c>
       <c r="M6">
-        <v>0.9786356599486415</v>
+        <v>1.03376430367949</v>
       </c>
       <c r="N6">
-        <v>1.007958320860933</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.031236133386631</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.035294552937738</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.038623484279727</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9840171751390896</v>
+        <v>1.009157878763059</v>
       </c>
       <c r="D7">
-        <v>1.005258518239085</v>
+        <v>1.028031265494133</v>
       </c>
       <c r="E7">
-        <v>0.9902069545987653</v>
+        <v>1.012029831323299</v>
       </c>
       <c r="F7">
-        <v>0.9641658237624466</v>
+        <v>1.02289738356868</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038341454022681</v>
+        <v>1.049919311533003</v>
       </c>
       <c r="J7">
-        <v>1.003832507828015</v>
+        <v>1.028324184982368</v>
       </c>
       <c r="K7">
-        <v>1.015290908914406</v>
+        <v>1.03779985939827</v>
       </c>
       <c r="L7">
-        <v>1.000421986182324</v>
+        <v>1.021982249600057</v>
       </c>
       <c r="M7">
-        <v>0.9747137272927396</v>
+        <v>1.032724182413771</v>
       </c>
       <c r="N7">
-        <v>1.005258065130328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.029784523275475</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.034471360212696</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.037816422571041</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9694405642387351</v>
+        <v>1.000422998057984</v>
       </c>
       <c r="D8">
-        <v>0.9939919313524732</v>
+        <v>1.021909238034081</v>
       </c>
       <c r="E8">
-        <v>0.9775870564857644</v>
+        <v>1.004444794149336</v>
       </c>
       <c r="F8">
-        <v>0.9454875736917555</v>
+        <v>1.017282794957548</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033299692901626</v>
+        <v>1.047470227810799</v>
       </c>
       <c r="J8">
-        <v>0.991973959178113</v>
+        <v>1.02201893715299</v>
       </c>
       <c r="K8">
-        <v>1.005253905520323</v>
+        <v>1.032800392690885</v>
       </c>
       <c r="L8">
-        <v>0.9890794349737353</v>
+        <v>1.015564892615663</v>
       </c>
       <c r="M8">
-        <v>0.9574603399455036</v>
+        <v>1.028233640150378</v>
       </c>
       <c r="N8">
-        <v>0.9933826759811494</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.023470321270958</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.030917358042473</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.034285978964664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.940492124553819</v>
+        <v>0.9838299771539655</v>
       </c>
       <c r="D9">
-        <v>0.9716595572397524</v>
+        <v>1.010291247722007</v>
       </c>
       <c r="E9">
-        <v>0.95254881286894</v>
+        <v>0.9900072044196302</v>
       </c>
       <c r="F9">
-        <v>0.9081908437377848</v>
+        <v>1.006776813612212</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023123225375348</v>
+        <v>1.042674631510305</v>
       </c>
       <c r="J9">
-        <v>0.9683366344523503</v>
+        <v>1.009966952910881</v>
       </c>
       <c r="K9">
-        <v>0.9852298065107443</v>
+        <v>1.023219534411108</v>
       </c>
       <c r="L9">
-        <v>0.9664617163112729</v>
+        <v>1.003264515415472</v>
       </c>
       <c r="M9">
-        <v>0.9229725790590706</v>
+        <v>1.019760890331666</v>
       </c>
       <c r="N9">
-        <v>0.9697117835430369</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011401221828844</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.024211621336735</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.027508309629069</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9181586749767517</v>
+        <v>0.972318172295267</v>
       </c>
       <c r="D10">
-        <v>0.9544872958360311</v>
+        <v>1.002263909463433</v>
       </c>
       <c r="E10">
-        <v>0.9332670813866851</v>
+        <v>0.9801160008376619</v>
       </c>
       <c r="F10">
-        <v>0.8791478755765296</v>
+        <v>0.9997968719731504</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.015167182094803</v>
+        <v>1.039296535362348</v>
       </c>
       <c r="J10">
-        <v>0.95004287338496</v>
+        <v>1.00167482111987</v>
       </c>
       <c r="K10">
-        <v>0.969729971789268</v>
+        <v>1.016592408280079</v>
       </c>
       <c r="L10">
-        <v>0.9489556601703431</v>
+        <v>0.9948537937777649</v>
       </c>
       <c r="M10">
-        <v>0.896105609743304</v>
+        <v>1.014169794928025</v>
       </c>
       <c r="N10">
-        <v>0.9513920432366075</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.003097314259568</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.019839155359093</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.022839413356037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9074894808683175</v>
+        <v>0.9705277986284085</v>
       </c>
       <c r="D11">
-        <v>0.9463057842151998</v>
+        <v>1.001092198471612</v>
       </c>
       <c r="E11">
-        <v>0.9240699498330556</v>
+        <v>0.9795222450953965</v>
       </c>
       <c r="F11">
-        <v>0.8651640425241351</v>
+        <v>1.000389092270709</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.011344050402006</v>
+        <v>1.038989145004961</v>
       </c>
       <c r="J11">
-        <v>0.941290357135826</v>
+        <v>1.001180217054233</v>
       </c>
       <c r="K11">
-        <v>0.9623166746240278</v>
+        <v>1.015993546880683</v>
       </c>
       <c r="L11">
-        <v>0.9405814321734409</v>
+        <v>0.9948409577526057</v>
       </c>
       <c r="M11">
-        <v>0.8831718569924791</v>
+        <v>1.015303674609895</v>
       </c>
       <c r="N11">
-        <v>0.942627097410472</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.002602007799426</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.021181608748391</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.022449386757721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9033418974766093</v>
+        <v>0.971002910046967</v>
       </c>
       <c r="D12">
-        <v>0.943129551159236</v>
+        <v>1.001470170822472</v>
       </c>
       <c r="E12">
-        <v>0.9204974355105201</v>
+        <v>0.980619706701918</v>
       </c>
       <c r="F12">
-        <v>0.8597057074019154</v>
+        <v>1.001846826566303</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.009854783513706</v>
+        <v>1.039284038361803</v>
       </c>
       <c r="J12">
-        <v>0.9378859417235857</v>
+        <v>1.002087278051733</v>
       </c>
       <c r="K12">
-        <v>0.9594338999509782</v>
+        <v>1.016569258777887</v>
       </c>
       <c r="L12">
-        <v>0.9373245981671021</v>
+        <v>0.9961278658058315</v>
       </c>
       <c r="M12">
-        <v>0.8781244191933896</v>
+        <v>1.016938729620793</v>
       </c>
       <c r="N12">
-        <v>0.9392178473378542</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.003510356927584</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.022806809282695</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.022856446569387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9042406155294944</v>
+        <v>0.973295008747144</v>
       </c>
       <c r="D13">
-        <v>0.9438175818657273</v>
+        <v>1.003102440293322</v>
       </c>
       <c r="E13">
-        <v>0.9212714052987748</v>
+        <v>0.9831452414563635</v>
       </c>
       <c r="F13">
-        <v>0.8608895603436758</v>
+        <v>1.004103644712397</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.010177616041493</v>
+        <v>1.040086511864439</v>
       </c>
       <c r="J13">
-        <v>0.9386237126065365</v>
+        <v>1.004177273411232</v>
       </c>
       <c r="K13">
-        <v>0.960058586238504</v>
+        <v>1.018126607812662</v>
       </c>
       <c r="L13">
-        <v>0.9380303622337838</v>
+        <v>0.9985574896464293</v>
       </c>
       <c r="M13">
-        <v>0.8792190938124487</v>
+        <v>1.019108874184586</v>
       </c>
       <c r="N13">
-        <v>0.9399566659400824</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.005603320320219</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.02480313165926</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.023955045109004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9071506508423203</v>
+        <v>0.9756700848390266</v>
       </c>
       <c r="D14">
-        <v>0.9460462146628876</v>
+        <v>1.00477784803516</v>
       </c>
       <c r="E14">
-        <v>0.9237780379841627</v>
+        <v>0.9855059882995306</v>
       </c>
       <c r="F14">
-        <v>0.8647186199152729</v>
+        <v>1.005998263165293</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.011222446363595</v>
+        <v>1.040860224804682</v>
       </c>
       <c r="J14">
-        <v>0.9410122775041552</v>
+        <v>1.006128409904641</v>
       </c>
       <c r="K14">
-        <v>0.9620811865338561</v>
+        <v>1.019627071527976</v>
       </c>
       <c r="L14">
-        <v>0.9403153968150453</v>
+        <v>1.00072385186049</v>
       </c>
       <c r="M14">
-        <v>0.8827599401598185</v>
+        <v>1.020824762322152</v>
       </c>
       <c r="N14">
-        <v>0.942348622873828</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.007557227651247</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.026334701447065</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.025017397503929</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.908917915534313</v>
+        <v>0.9766890399037614</v>
       </c>
       <c r="D15">
-        <v>0.9474002519969449</v>
+        <v>1.005493490962952</v>
       </c>
       <c r="E15">
-        <v>0.9253007051184389</v>
+        <v>0.9864437308592338</v>
       </c>
       <c r="F15">
-        <v>0.8670409167935085</v>
+        <v>1.006697998603396</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.011856586500698</v>
+        <v>1.041176804988454</v>
       </c>
       <c r="J15">
-        <v>0.9424626039591504</v>
+        <v>1.006907618658961</v>
       </c>
       <c r="K15">
-        <v>0.9633094082840491</v>
+        <v>1.020241190380482</v>
       </c>
       <c r="L15">
-        <v>0.9417029255475327</v>
+        <v>1.001552530203547</v>
       </c>
       <c r="M15">
-        <v>0.8849075935695114</v>
+        <v>1.02142346443611</v>
       </c>
       <c r="N15">
-        <v>0.9438010089587442</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008337542971374</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.02684579976786</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.025457561006672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9188430344247817</v>
+        <v>0.9810237937640245</v>
       </c>
       <c r="D16">
-        <v>0.9550126057822886</v>
+        <v>1.008510847687537</v>
       </c>
       <c r="E16">
-        <v>0.9338573557981807</v>
+        <v>0.9900205441728958</v>
       </c>
       <c r="F16">
-        <v>0.880042211794818</v>
+        <v>1.009205213021962</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.015411983493058</v>
+        <v>1.042436497964476</v>
       </c>
       <c r="J16">
-        <v>0.9506040287276597</v>
+        <v>1.009931801319519</v>
       </c>
       <c r="K16">
-        <v>0.9702053423295505</v>
+        <v>1.022691886422416</v>
       </c>
       <c r="L16">
-        <v>0.9494926075039759</v>
+        <v>1.004535133840102</v>
       </c>
       <c r="M16">
-        <v>0.8969328842985036</v>
+        <v>1.023374034552505</v>
       </c>
       <c r="N16">
-        <v>0.9519539954842591</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.01136602031819</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.028348437766934</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.027193523185896</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9247805731572867</v>
+        <v>0.9831433025220521</v>
       </c>
       <c r="D17">
-        <v>0.9595727225128843</v>
+        <v>1.009975796202421</v>
       </c>
       <c r="E17">
-        <v>0.9389802187944691</v>
+        <v>0.9915735396652389</v>
       </c>
       <c r="F17">
-        <v>0.8877891094749681</v>
+        <v>1.01015738091686</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.01753347631458</v>
+        <v>1.043007774849729</v>
       </c>
       <c r="J17">
-        <v>0.9554712080270749</v>
+        <v>1.011265033981812</v>
       </c>
       <c r="K17">
-        <v>0.9743287701575898</v>
+        <v>1.023811145572111</v>
       </c>
       <c r="L17">
-        <v>0.9541499909957362</v>
+        <v>1.00573094619524</v>
       </c>
       <c r="M17">
-        <v>0.9040991897834632</v>
+        <v>1.023989627906372</v>
       </c>
       <c r="N17">
-        <v>0.9568280867365528</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012701146323787</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.028704746626985</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.027987507225219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9281503159824679</v>
+        <v>0.9834017480067445</v>
       </c>
       <c r="D18">
-        <v>0.9621626680599871</v>
+        <v>1.01012523344355</v>
       </c>
       <c r="E18">
-        <v>0.9418888452653432</v>
+        <v>0.9913466192668645</v>
       </c>
       <c r="F18">
-        <v>0.892176231765945</v>
+        <v>1.009640145389163</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.018735439664685</v>
+        <v>1.042983199082719</v>
       </c>
       <c r="J18">
-        <v>0.9582322887593221</v>
+        <v>1.011106822759706</v>
       </c>
       <c r="K18">
-        <v>0.9766681306313457</v>
+        <v>1.023771451365815</v>
       </c>
       <c r="L18">
-        <v>0.9567921686929505</v>
+        <v>1.005316412022429</v>
       </c>
       <c r="M18">
-        <v>0.908157681892653</v>
+        <v>1.023294526548452</v>
       </c>
       <c r="N18">
-        <v>0.9595930885201399</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012542710423599</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.027914880964076</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.027947675655586</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9292843122336234</v>
+        <v>0.981940469624128</v>
       </c>
       <c r="D19">
-        <v>0.963034548953257</v>
+        <v>1.009065968647237</v>
       </c>
       <c r="E19">
-        <v>0.9428678587838417</v>
+        <v>0.9894995744642795</v>
       </c>
       <c r="F19">
-        <v>0.8936511228011335</v>
+        <v>1.007676678029154</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.019139572302095</v>
+        <v>1.042412717118881</v>
       </c>
       <c r="J19">
-        <v>0.9591612511644656</v>
+        <v>1.009564812533685</v>
       </c>
       <c r="K19">
-        <v>0.9774552308573774</v>
+        <v>1.022666311329779</v>
       </c>
       <c r="L19">
-        <v>0.9576811399335114</v>
+        <v>1.003436522840021</v>
       </c>
       <c r="M19">
-        <v>0.9095221045214263</v>
+        <v>1.021300365010518</v>
       </c>
       <c r="N19">
-        <v>0.9605233701584525</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.010998510366185</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.02600796948476</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.027172763870868</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9241534169001794</v>
+        <v>0.9755030342653205</v>
       </c>
       <c r="D20">
-        <v>0.95909084939198</v>
+        <v>1.004498249179649</v>
       </c>
       <c r="E20">
-        <v>0.9384389796933075</v>
+        <v>0.9829224150741084</v>
       </c>
       <c r="F20">
-        <v>0.8869718634610756</v>
+        <v>1.001703062901288</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.017309604821551</v>
+        <v>1.040254977949104</v>
       </c>
       <c r="J20">
-        <v>0.9549572340820778</v>
+        <v>1.004012063854953</v>
       </c>
       <c r="K20">
-        <v>0.9738933133643068</v>
+        <v>1.018462460782617</v>
       </c>
       <c r="L20">
-        <v>0.953658158563055</v>
+        <v>0.9972723505243904</v>
       </c>
       <c r="M20">
-        <v>0.9033431715333112</v>
+        <v>1.015716031959096</v>
       </c>
       <c r="N20">
-        <v>0.9563133828896002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.005437876147421</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.021052077128908</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.024204425267942</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9062991541682204</v>
+        <v>0.9660322925268653</v>
       </c>
       <c r="D21">
-        <v>0.9453939755357442</v>
+        <v>0.9978884357112578</v>
       </c>
       <c r="E21">
-        <v>0.9230444966112135</v>
+        <v>0.9746074984499109</v>
       </c>
       <c r="F21">
-        <v>0.8635988727120896</v>
+        <v>0.9956723945727689</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.010916801914047</v>
+        <v>1.037400751528685</v>
       </c>
       <c r="J21">
-        <v>0.9403134189459244</v>
+        <v>0.9970221897044727</v>
       </c>
       <c r="K21">
-        <v>0.9614893804250675</v>
+        <v>1.012909923056339</v>
       </c>
       <c r="L21">
-        <v>0.9396468154104013</v>
+        <v>0.9900864551886294</v>
       </c>
       <c r="M21">
-        <v>0.8817244420164355</v>
+        <v>1.010736221228123</v>
       </c>
       <c r="N21">
-        <v>0.9416487718562843</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9984380755738967</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.017068996591379</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.020281785252614</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8939777226861774</v>
+        <v>0.9599724758478506</v>
       </c>
       <c r="D22">
-        <v>0.9359677829194788</v>
+        <v>0.9936660442728846</v>
       </c>
       <c r="E22">
-        <v>0.9124378522591718</v>
+        <v>0.9693143804275064</v>
       </c>
       <c r="F22">
-        <v>0.8473318493776982</v>
+        <v>0.9919599863038132</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.006487131622149</v>
+        <v>1.03556542043094</v>
       </c>
       <c r="J22">
-        <v>0.9301960834189582</v>
+        <v>0.9925758973997013</v>
       </c>
       <c r="K22">
-        <v>0.9529242008111853</v>
+        <v>1.009364031069235</v>
       </c>
       <c r="L22">
-        <v>0.9299692692508517</v>
+        <v>0.9855192599423426</v>
       </c>
       <c r="M22">
-        <v>0.8666849789866481</v>
+        <v>1.00769241792275</v>
       </c>
       <c r="N22">
-        <v>0.9315170685523949</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9939854690240557</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.014659944167828</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.017760831068086</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9006286580959797</v>
+        <v>0.9631470756200529</v>
       </c>
       <c r="D23">
-        <v>0.9410530974987785</v>
+        <v>0.9958718579157801</v>
       </c>
       <c r="E23">
-        <v>0.9181612905648741</v>
+        <v>0.9720614375993994</v>
       </c>
       <c r="F23">
-        <v>0.8561277971687764</v>
+        <v>0.9939130675127756</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.008879730242805</v>
+        <v>1.036522593768621</v>
       </c>
       <c r="J23">
-        <v>0.9356583235431253</v>
+        <v>0.9948920919012862</v>
       </c>
       <c r="K23">
-        <v>0.9575478701215632</v>
+        <v>1.011210820940264</v>
       </c>
       <c r="L23">
-        <v>0.9351937090020653</v>
+        <v>0.9878812614800254</v>
       </c>
       <c r="M23">
-        <v>0.8748162460809537</v>
+        <v>1.009290447419173</v>
       </c>
       <c r="N23">
-        <v>0.9369870656840664</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9963049527875041</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.015924723719002</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.019056795469415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9244370883752818</v>
+        <v>0.9752437610463742</v>
       </c>
       <c r="D24">
-        <v>0.9593088013114064</v>
+        <v>1.00430233368467</v>
       </c>
       <c r="E24">
-        <v>0.9386837858235336</v>
+        <v>0.9825771743111151</v>
       </c>
       <c r="F24">
-        <v>0.887341544445249</v>
+        <v>1.001393753205033</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.01741087143718</v>
+        <v>1.040147545907646</v>
       </c>
       <c r="J24">
-        <v>0.9551897153786412</v>
+        <v>1.003729251431279</v>
       </c>
       <c r="K24">
-        <v>0.9740902790924827</v>
+        <v>1.018254314441634</v>
       </c>
       <c r="L24">
-        <v>0.9538806244526835</v>
+        <v>0.9969173222465472</v>
       </c>
       <c r="M24">
-        <v>0.9036851556904983</v>
+        <v>1.015396437104479</v>
       </c>
       <c r="N24">
-        <v>0.9565461943362705</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.005154662097665</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.020757359972507</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.024029410392794</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9484363546424576</v>
+        <v>0.9883551633266556</v>
       </c>
       <c r="D25">
-        <v>0.9777809965531653</v>
+        <v>1.013465881755529</v>
       </c>
       <c r="E25">
-        <v>0.959415700529137</v>
+        <v>0.9939805336729691</v>
       </c>
       <c r="F25">
-        <v>0.9184594125893478</v>
+        <v>1.009606546978452</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025933814807561</v>
+        <v>1.044007937314003</v>
       </c>
       <c r="J25">
-        <v>0.9748330026477544</v>
+        <v>1.013280879880571</v>
       </c>
       <c r="K25">
-        <v>0.990734313280195</v>
+        <v>1.025858692800032</v>
       </c>
       <c r="L25">
-        <v>0.97267849830894</v>
+        <v>1.006673018389107</v>
       </c>
       <c r="M25">
-        <v>0.9324708030929545</v>
+        <v>1.022057541857141</v>
       </c>
       <c r="N25">
-        <v>0.9762173773264223</v>
+        <v>1.014719854954943</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.026029306932358</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.029403318442948</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_10_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_10_0/res_bus/vm_pu.xlsx
@@ -433,49 +433,49 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9980342968504132</v>
+        <v>0.9952502744462589</v>
       </c>
       <c r="D2">
-        <v>1.020227969265646</v>
+        <v>1.01621767805021</v>
       </c>
       <c r="E2">
-        <v>1.002342692684421</v>
+        <v>1.001404801801032</v>
       </c>
       <c r="F2">
-        <v>1.01577072413432</v>
+        <v>1.014564675453792</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046782275101134</v>
+        <v>1.040685599070602</v>
       </c>
       <c r="J2">
-        <v>1.020273961143928</v>
+        <v>1.017573983053794</v>
       </c>
       <c r="K2">
-        <v>1.031412509617071</v>
+        <v>1.027455605478149</v>
       </c>
       <c r="L2">
-        <v>1.013769486278824</v>
+        <v>1.012844600136518</v>
       </c>
       <c r="M2">
-        <v>1.0270146344435</v>
+        <v>1.025824762866032</v>
       </c>
       <c r="N2">
-        <v>1.021722867195811</v>
+        <v>1.01901905482709</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.029952583034312</v>
+        <v>1.029010864769672</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.033281564413829</v>
+        <v>1.03048361950987</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -486,49 +486,49 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004825848129953</v>
+        <v>1.001633405771969</v>
       </c>
       <c r="D3">
-        <v>1.024987077111015</v>
+        <v>1.020646595585746</v>
       </c>
       <c r="E3">
-        <v>1.008245117487966</v>
+        <v>1.006739449760888</v>
       </c>
       <c r="F3">
-        <v>1.020117966595953</v>
+        <v>1.018736861385258</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04870362624981</v>
+        <v>1.042166162127505</v>
       </c>
       <c r="J3">
-        <v>1.025185814633748</v>
+        <v>1.022079641324997</v>
       </c>
       <c r="K3">
-        <v>1.035309922471375</v>
+        <v>1.031021942939018</v>
       </c>
       <c r="L3">
-        <v>1.018773576396162</v>
+        <v>1.017286818254202</v>
       </c>
       <c r="M3">
-        <v>1.030499746114026</v>
+        <v>1.029135484850405</v>
       </c>
       <c r="N3">
-        <v>1.026641696080985</v>
+        <v>1.023531111649852</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.032710850935052</v>
+        <v>1.031631116947202</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.036034737809099</v>
+        <v>1.033002699235149</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -539,49 +539,49 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009085692487845</v>
+        <v>1.00564718493473</v>
       </c>
       <c r="D4">
-        <v>1.02797409762945</v>
+        <v>1.023433356513541</v>
       </c>
       <c r="E4">
-        <v>1.011947723393485</v>
+        <v>1.010098507286725</v>
       </c>
       <c r="F4">
-        <v>1.0228611408862</v>
+        <v>1.021374877031036</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049892112496765</v>
+        <v>1.043083481789972</v>
       </c>
       <c r="J4">
-        <v>1.028259806579122</v>
+        <v>1.024907530020405</v>
       </c>
       <c r="K4">
-        <v>1.037746227913403</v>
+        <v>1.033256954509259</v>
       </c>
       <c r="L4">
-        <v>1.021904057246478</v>
+        <v>1.020076561155341</v>
       </c>
       <c r="M4">
-        <v>1.032691264740112</v>
+        <v>1.031221993205959</v>
       </c>
       <c r="N4">
-        <v>1.029720053447513</v>
+        <v>1.026363016271571</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.034445307860266</v>
+        <v>1.033282467115808</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037758335329352</v>
+        <v>1.034583979851597</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -592,49 +592,49 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010860465115729</v>
+        <v>1.007317243842678</v>
       </c>
       <c r="D5">
-        <v>1.029220952309471</v>
+        <v>1.024596332870148</v>
       </c>
       <c r="E5">
-        <v>1.013496114626757</v>
+        <v>1.011498687888952</v>
       </c>
       <c r="F5">
-        <v>1.024004762544205</v>
+        <v>1.022473794149526</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050385349758661</v>
+        <v>1.043464949914988</v>
       </c>
       <c r="J5">
-        <v>1.029542504734472</v>
+        <v>1.026085322703811</v>
       </c>
       <c r="K5">
-        <v>1.038762958080233</v>
+        <v>1.034189302970866</v>
       </c>
       <c r="L5">
-        <v>1.023213751498289</v>
+        <v>1.021239116279662</v>
       </c>
       <c r="M5">
-        <v>1.033604292718157</v>
+        <v>1.032090344978341</v>
       </c>
       <c r="N5">
-        <v>1.031004573181371</v>
+        <v>1.027542481555682</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.035167914055624</v>
+        <v>1.033969715959364</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.038484441739408</v>
+        <v>1.035250457739958</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -645,49 +645,49 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011174354167958</v>
+        <v>1.007607360709688</v>
       </c>
       <c r="D6">
-        <v>1.029443916600213</v>
+        <v>1.024802166964096</v>
       </c>
       <c r="E6">
-        <v>1.013776903854914</v>
+        <v>1.011743820650546</v>
       </c>
       <c r="F6">
-        <v>1.024203495954631</v>
+        <v>1.022662350032283</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050474980873582</v>
+        <v>1.043534852743645</v>
       </c>
       <c r="J6">
-        <v>1.029773736564012</v>
+        <v>1.026292884709521</v>
       </c>
       <c r="K6">
-        <v>1.038947209148999</v>
+        <v>1.034356367523116</v>
       </c>
       <c r="L6">
-        <v>1.023454325624266</v>
+        <v>1.021444326309246</v>
       </c>
       <c r="M6">
-        <v>1.03376430367949</v>
+        <v>1.0322402102031</v>
       </c>
       <c r="N6">
-        <v>1.031236133386631</v>
+        <v>1.027750338323249</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.035294552937738</v>
+        <v>1.03408832531409</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.038623484279727</v>
+        <v>1.035377387437106</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -698,49 +698,49 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009157878763059</v>
+        <v>1.005700128020808</v>
       </c>
       <c r="D7">
-        <v>1.028031265494133</v>
+        <v>1.023480440526689</v>
       </c>
       <c r="E7">
-        <v>1.012029831323299</v>
+        <v>1.010147931176541</v>
       </c>
       <c r="F7">
-        <v>1.02289738356868</v>
+        <v>1.021402809533337</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049919311533003</v>
+        <v>1.043106009176979</v>
       </c>
       <c r="J7">
-        <v>1.028324184982368</v>
+        <v>1.024953101612524</v>
       </c>
       <c r="K7">
-        <v>1.03779985939827</v>
+        <v>1.033300592762135</v>
       </c>
       <c r="L7">
-        <v>1.021982249600057</v>
+        <v>1.020122442395433</v>
       </c>
       <c r="M7">
-        <v>1.032724182413771</v>
+        <v>1.031246688676264</v>
       </c>
       <c r="N7">
-        <v>1.029784523275475</v>
+        <v>1.026408652580578</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.034471360212696</v>
+        <v>1.033302012122811</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.037816422571041</v>
+        <v>1.034635088074948</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -751,49 +751,49 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000422998057984</v>
+        <v>0.9974721330780211</v>
       </c>
       <c r="D8">
-        <v>1.021909238034081</v>
+        <v>1.01777187737122</v>
       </c>
       <c r="E8">
-        <v>1.004444794149336</v>
+        <v>1.003267497367979</v>
       </c>
       <c r="F8">
-        <v>1.017282794957548</v>
+        <v>1.016005056278673</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047470227810799</v>
+        <v>1.041217182960833</v>
       </c>
       <c r="J8">
-        <v>1.02201893715299</v>
+        <v>1.019153918363407</v>
       </c>
       <c r="K8">
-        <v>1.032800392690885</v>
+        <v>1.028716380301553</v>
       </c>
       <c r="L8">
-        <v>1.015564892615663</v>
+        <v>1.014403389493971</v>
       </c>
       <c r="M8">
-        <v>1.028233640150378</v>
+        <v>1.026972506852579</v>
       </c>
       <c r="N8">
-        <v>1.023470321270958</v>
+        <v>1.020601233826072</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.030917358042473</v>
+        <v>1.029919241372446</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.034285978964664</v>
+        <v>1.031398253268764</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -804,49 +804,49 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9838299771539655</v>
+        <v>0.9819627840377358</v>
       </c>
       <c r="D9">
-        <v>1.010291247722007</v>
+        <v>1.0070144004791</v>
       </c>
       <c r="E9">
-        <v>0.9900072044196302</v>
+        <v>0.9903302692632074</v>
       </c>
       <c r="F9">
-        <v>1.006776813612212</v>
+        <v>1.005965755759694</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042674631510305</v>
+        <v>1.037531807375675</v>
       </c>
       <c r="J9">
-        <v>1.009966952910881</v>
+        <v>1.008168965446568</v>
       </c>
       <c r="K9">
-        <v>1.023219534411108</v>
+        <v>1.019994689887788</v>
       </c>
       <c r="L9">
-        <v>1.003264515415472</v>
+        <v>1.003582203849265</v>
       </c>
       <c r="M9">
-        <v>1.019760890331666</v>
+        <v>1.018962778619792</v>
       </c>
       <c r="N9">
-        <v>1.011401221828844</v>
+        <v>1.009600681016099</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.024211621336735</v>
+        <v>1.023579954425315</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.027508309629069</v>
+        <v>1.025228034361995</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -857,49 +857,49 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.972318172295267</v>
+        <v>0.9711934256921823</v>
       </c>
       <c r="D10">
-        <v>1.002263909463433</v>
+        <v>0.9995960947310283</v>
       </c>
       <c r="E10">
-        <v>0.9801160008376619</v>
+        <v>0.9814175584277126</v>
       </c>
       <c r="F10">
-        <v>0.9997968719731504</v>
+        <v>0.999307808338715</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039296535362348</v>
+        <v>1.03495523980686</v>
       </c>
       <c r="J10">
-        <v>1.00167482111987</v>
+        <v>1.000598486383003</v>
       </c>
       <c r="K10">
-        <v>1.016592408280079</v>
+        <v>1.01397264564365</v>
       </c>
       <c r="L10">
-        <v>0.9948537937777649</v>
+        <v>0.9961306305600816</v>
       </c>
       <c r="M10">
-        <v>1.014169794928025</v>
+        <v>1.013689571776602</v>
       </c>
       <c r="N10">
-        <v>1.003097314259568</v>
+        <v>1.002019451003917</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.019839155359093</v>
+        <v>1.019459104320567</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.022839413356037</v>
+        <v>1.0209870095158</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -910,49 +910,49 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9705277986284085</v>
+        <v>0.9688981845066371</v>
       </c>
       <c r="D11">
-        <v>1.001092198471612</v>
+        <v>0.9982662696000111</v>
       </c>
       <c r="E11">
-        <v>0.9795222450953965</v>
+        <v>0.9798358940300251</v>
       </c>
       <c r="F11">
-        <v>1.000389092270709</v>
+        <v>0.9996860962214442</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038989145004961</v>
+        <v>1.034786665299538</v>
       </c>
       <c r="J11">
-        <v>1.001180217054233</v>
+        <v>0.9996246225418255</v>
       </c>
       <c r="K11">
-        <v>1.015993546880683</v>
+        <v>1.013220955768027</v>
       </c>
       <c r="L11">
-        <v>0.9948409577526057</v>
+        <v>0.9951483647012451</v>
       </c>
       <c r="M11">
-        <v>1.015303674609895</v>
+        <v>1.014613934736765</v>
       </c>
       <c r="N11">
-        <v>1.002602007799426</v>
+        <v>1.001044204164382</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.021181608748391</v>
+        <v>1.020636032020053</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.022449386757721</v>
+        <v>1.02048900697856</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -963,49 +963,49 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.971002910046967</v>
+        <v>0.9689650297610367</v>
       </c>
       <c r="D12">
-        <v>1.001470170822472</v>
+        <v>0.9985034994369093</v>
       </c>
       <c r="E12">
-        <v>0.980619706701918</v>
+        <v>0.9801334383428966</v>
       </c>
       <c r="F12">
-        <v>1.001846826566303</v>
+        <v>1.000972780360167</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039284038361803</v>
+        <v>1.035095916038737</v>
       </c>
       <c r="J12">
-        <v>1.002087278051733</v>
+        <v>1.000143502796248</v>
       </c>
       <c r="K12">
-        <v>1.016569258777887</v>
+        <v>1.013659426305745</v>
       </c>
       <c r="L12">
-        <v>0.9961278658058315</v>
+        <v>0.9956514111962698</v>
       </c>
       <c r="M12">
-        <v>1.016938729620793</v>
+        <v>1.016081367134242</v>
       </c>
       <c r="N12">
-        <v>1.003510356927584</v>
+        <v>1.001563821288282</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.022806809282695</v>
+        <v>1.022128882596465</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.022856446569387</v>
+        <v>1.020799031294778</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1016,49 +1016,49 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.973295008747144</v>
+        <v>0.9708753776517994</v>
       </c>
       <c r="D13">
-        <v>1.003102440293322</v>
+        <v>0.9999865296545453</v>
       </c>
       <c r="E13">
-        <v>0.9831452414563635</v>
+        <v>0.9819165081262011</v>
       </c>
       <c r="F13">
-        <v>1.004103644712397</v>
+        <v>1.003070575244098</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040086511864439</v>
+        <v>1.035812884080664</v>
       </c>
       <c r="J13">
-        <v>1.004177273411232</v>
+        <v>1.001868274359607</v>
       </c>
       <c r="K13">
-        <v>1.018126607812662</v>
+        <v>1.015069952960299</v>
       </c>
       <c r="L13">
-        <v>0.9985574896464293</v>
+        <v>0.9973533281339785</v>
       </c>
       <c r="M13">
-        <v>1.019108874184586</v>
+        <v>1.018095346310777</v>
       </c>
       <c r="N13">
-        <v>1.005603320320219</v>
+        <v>1.003291042225094</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.02480313165926</v>
+        <v>1.024001929427508</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.023955045109004</v>
+        <v>1.021793816683504</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1069,49 +1069,49 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9756700848390266</v>
+        <v>0.9730146804919559</v>
       </c>
       <c r="D14">
-        <v>1.00477784803516</v>
+        <v>1.001567327135278</v>
       </c>
       <c r="E14">
-        <v>0.9855059882995306</v>
+        <v>0.9838087165388361</v>
       </c>
       <c r="F14">
-        <v>1.005998263165293</v>
+        <v>1.004867395892885</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040860224804682</v>
+        <v>1.036489804919773</v>
       </c>
       <c r="J14">
-        <v>1.006128409904641</v>
+        <v>1.00359215416946</v>
       </c>
       <c r="K14">
-        <v>1.019627071527976</v>
+        <v>1.016476676513812</v>
       </c>
       <c r="L14">
-        <v>1.00072385186049</v>
+        <v>0.9990599549952746</v>
       </c>
       <c r="M14">
-        <v>1.020824762322152</v>
+        <v>1.019714949540894</v>
       </c>
       <c r="N14">
-        <v>1.007557227651247</v>
+        <v>1.00501737014201</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.026334701447065</v>
+        <v>1.025457505081191</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.025017397503929</v>
+        <v>1.022789899916219</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1122,49 +1122,49 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9766890399037614</v>
+        <v>0.9739633418061392</v>
       </c>
       <c r="D15">
-        <v>1.005493490962952</v>
+        <v>1.002245536372675</v>
       </c>
       <c r="E15">
-        <v>0.9864437308592338</v>
+        <v>0.9846183154533834</v>
       </c>
       <c r="F15">
-        <v>1.006697998603396</v>
+        <v>1.005537779606074</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041176804988454</v>
+        <v>1.036754479496843</v>
       </c>
       <c r="J15">
-        <v>1.006907618658961</v>
+        <v>1.004302952886519</v>
       </c>
       <c r="K15">
-        <v>1.020241190380482</v>
+        <v>1.017053536189281</v>
       </c>
       <c r="L15">
-        <v>1.001552530203547</v>
+        <v>0.9997626790965886</v>
       </c>
       <c r="M15">
-        <v>1.02142346443611</v>
+        <v>1.020284660285416</v>
       </c>
       <c r="N15">
-        <v>1.008337542971374</v>
+        <v>1.005729178274777</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.02684579976786</v>
+        <v>1.025945712334456</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.025457561006672</v>
+        <v>1.023203739977078</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1175,49 +1175,49 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9810237937640245</v>
+        <v>0.9780998313693882</v>
       </c>
       <c r="D16">
-        <v>1.008510847687537</v>
+        <v>1.005056465116485</v>
       </c>
       <c r="E16">
-        <v>0.9900205441728958</v>
+        <v>0.9879879848850689</v>
       </c>
       <c r="F16">
-        <v>1.009205213021962</v>
+        <v>1.007960017663976</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042436497964476</v>
+        <v>1.037700131402276</v>
       </c>
       <c r="J16">
-        <v>1.009931801319519</v>
+        <v>1.007130459551467</v>
       </c>
       <c r="K16">
-        <v>1.022691886422416</v>
+        <v>1.019298608521678</v>
       </c>
       <c r="L16">
-        <v>1.004535133840102</v>
+        <v>1.002540233822447</v>
       </c>
       <c r="M16">
-        <v>1.023374034552505</v>
+        <v>1.022150763654738</v>
       </c>
       <c r="N16">
-        <v>1.01136602031819</v>
+        <v>1.008560700323508</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.028348437766934</v>
+        <v>1.027381560721187</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.027193523185896</v>
+        <v>1.024794337391042</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1228,49 +1228,49 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9831433025220521</v>
+        <v>0.9801732310916691</v>
       </c>
       <c r="D17">
-        <v>1.009975796202421</v>
+        <v>1.006401237956918</v>
       </c>
       <c r="E17">
-        <v>0.9915735396652389</v>
+        <v>0.9896027508079814</v>
       </c>
       <c r="F17">
-        <v>1.01015738091686</v>
+        <v>1.008890460963101</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043007774849729</v>
+        <v>1.038075611391665</v>
       </c>
       <c r="J17">
-        <v>1.011265033981812</v>
+        <v>1.008415237707525</v>
       </c>
       <c r="K17">
-        <v>1.023811145572111</v>
+        <v>1.020297953532623</v>
       </c>
       <c r="L17">
-        <v>1.00573094619524</v>
+        <v>1.003795570938706</v>
       </c>
       <c r="M17">
-        <v>1.023989627906372</v>
+        <v>1.022744383409039</v>
       </c>
       <c r="N17">
-        <v>1.012701146323787</v>
+        <v>1.009847303011914</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.028704746626985</v>
+        <v>1.02772040175753</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.027987507225219</v>
+        <v>1.025503550892892</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1281,49 +1281,49 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9834017480067445</v>
+        <v>0.9805753817578861</v>
       </c>
       <c r="D18">
-        <v>1.01012523344355</v>
+        <v>1.006534394317623</v>
       </c>
       <c r="E18">
-        <v>0.9913466192668645</v>
+        <v>0.9897679104265064</v>
       </c>
       <c r="F18">
-        <v>1.009640145389163</v>
+        <v>1.008430456386381</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042983199082719</v>
+        <v>1.037958918828612</v>
       </c>
       <c r="J18">
-        <v>1.011106822759706</v>
+        <v>1.008392859951331</v>
       </c>
       <c r="K18">
-        <v>1.023771451365815</v>
+        <v>1.020241280867451</v>
       </c>
       <c r="L18">
-        <v>1.005316412022429</v>
+        <v>1.003765631813137</v>
       </c>
       <c r="M18">
-        <v>1.023294526548452</v>
+        <v>1.022105238768414</v>
       </c>
       <c r="N18">
-        <v>1.012542710423599</v>
+        <v>1.00982489347674</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.027914880964076</v>
+        <v>1.026974569046101</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.027947675655586</v>
+        <v>1.025451674801169</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1334,49 +1334,49 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.981940469624128</v>
+        <v>0.9794833323881962</v>
       </c>
       <c r="D19">
-        <v>1.009065968647237</v>
+        <v>1.00561023245966</v>
       </c>
       <c r="E19">
-        <v>0.9894995744642795</v>
+        <v>0.9886499135336199</v>
       </c>
       <c r="F19">
-        <v>1.007676678029154</v>
+        <v>1.006619480660289</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042412717118881</v>
+        <v>1.037427519166324</v>
       </c>
       <c r="J19">
-        <v>1.009564812533685</v>
+        <v>1.007205178643713</v>
       </c>
       <c r="K19">
-        <v>1.022666311329779</v>
+        <v>1.019268795974836</v>
       </c>
       <c r="L19">
-        <v>1.003436522840021</v>
+        <v>1.002601870325101</v>
       </c>
       <c r="M19">
-        <v>1.021300365010518</v>
+        <v>1.020260987462317</v>
       </c>
       <c r="N19">
-        <v>1.010998510366185</v>
+        <v>1.008635525525436</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.02600796948476</v>
+        <v>1.025185908344122</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.027172763870868</v>
+        <v>1.024770573158477</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1387,49 +1387,49 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9755030342653205</v>
+        <v>0.9741088336031942</v>
       </c>
       <c r="D20">
-        <v>1.004498249179649</v>
+        <v>1.001631579293798</v>
       </c>
       <c r="E20">
-        <v>0.9829224150741084</v>
+        <v>0.9838457927816906</v>
       </c>
       <c r="F20">
-        <v>1.001703062901288</v>
+        <v>1.001097015349709</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040254977949104</v>
+        <v>1.035688735378662</v>
       </c>
       <c r="J20">
-        <v>1.004012063854953</v>
+        <v>1.002675637441912</v>
       </c>
       <c r="K20">
-        <v>1.018462460782617</v>
+        <v>1.015645799889527</v>
       </c>
       <c r="L20">
-        <v>0.9972723505243904</v>
+        <v>0.9981787691336284</v>
       </c>
       <c r="M20">
-        <v>1.015716031959096</v>
+        <v>1.015120602453908</v>
       </c>
       <c r="N20">
-        <v>1.005437876147421</v>
+        <v>1.004099551855582</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.021052077128908</v>
+        <v>1.020580845662565</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.024204425267942</v>
+        <v>1.022212920284423</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1440,49 +1440,49 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9660322925268653</v>
+        <v>0.9654131761631811</v>
       </c>
       <c r="D21">
-        <v>0.9978884357112578</v>
+        <v>0.9956035640611864</v>
       </c>
       <c r="E21">
-        <v>0.9746074984499109</v>
+        <v>0.9766046849266961</v>
       </c>
       <c r="F21">
-        <v>0.9956723945727689</v>
+        <v>0.9954026363338381</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037400751528685</v>
+        <v>1.033510283988585</v>
       </c>
       <c r="J21">
-        <v>0.9970221897044727</v>
+        <v>0.9964316732129064</v>
       </c>
       <c r="K21">
-        <v>1.012909923056339</v>
+        <v>1.010668709731324</v>
       </c>
       <c r="L21">
-        <v>0.9900864551886294</v>
+        <v>0.9920432708988645</v>
       </c>
       <c r="M21">
-        <v>1.010736221228123</v>
+        <v>1.010471633793799</v>
       </c>
       <c r="N21">
-        <v>0.9984380755738967</v>
+        <v>0.9978467204811794</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.017068996591379</v>
+        <v>1.016859586234707</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.020281785252614</v>
+        <v>1.018697138985395</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1493,49 +1493,49 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9599724758478506</v>
+        <v>0.9598620800228568</v>
       </c>
       <c r="D22">
-        <v>0.9936660442728846</v>
+        <v>0.9917649385706827</v>
       </c>
       <c r="E22">
-        <v>0.9693143804275064</v>
+        <v>0.97200206607797</v>
       </c>
       <c r="F22">
-        <v>0.9919599863038132</v>
+        <v>0.9919118400087666</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03556542043094</v>
+        <v>1.032116613367833</v>
       </c>
       <c r="J22">
-        <v>0.9925758973997013</v>
+        <v>0.9924709516625573</v>
       </c>
       <c r="K22">
-        <v>1.009364031069235</v>
+        <v>1.007501318090803</v>
       </c>
       <c r="L22">
-        <v>0.9855192599423426</v>
+        <v>0.9881493473653098</v>
       </c>
       <c r="M22">
-        <v>1.00769241792275</v>
+        <v>1.007645245951958</v>
       </c>
       <c r="N22">
-        <v>0.9939854690240557</v>
+        <v>0.9938803742519278</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.014659944167828</v>
+        <v>1.0146226093105</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.017760831068086</v>
+        <v>1.016443769522117</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1546,49 +1546,49 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9631470756200529</v>
+        <v>0.9627895986948318</v>
       </c>
       <c r="D23">
-        <v>0.9958718579157801</v>
+        <v>0.9937783009631265</v>
       </c>
       <c r="E23">
-        <v>0.9720614375993994</v>
+        <v>0.9744220245630342</v>
       </c>
       <c r="F23">
-        <v>0.9939130675127756</v>
+        <v>0.9937572405413511</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036522593768621</v>
+        <v>1.032841982962497</v>
       </c>
       <c r="J23">
-        <v>0.9948920919012862</v>
+        <v>0.9945516569140939</v>
       </c>
       <c r="K23">
-        <v>1.011210820940264</v>
+        <v>1.009158331296115</v>
       </c>
       <c r="L23">
-        <v>0.9878812614800254</v>
+        <v>0.9901927893773979</v>
       </c>
       <c r="M23">
-        <v>1.009290447419173</v>
+        <v>1.009137685150683</v>
       </c>
       <c r="N23">
-        <v>0.9963049527875041</v>
+        <v>0.9959640343435817</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.015924723719002</v>
+        <v>1.015803818300413</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.019056795469415</v>
+        <v>1.017605534470805</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1599,49 +1599,49 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9752437610463742</v>
+        <v>0.9739579357475667</v>
       </c>
       <c r="D24">
-        <v>1.00430233368467</v>
+        <v>1.00149067662107</v>
       </c>
       <c r="E24">
-        <v>0.9825771743111151</v>
+        <v>0.9836837083422951</v>
       </c>
       <c r="F24">
-        <v>1.001393753205033</v>
+        <v>1.000834367286103</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040147545907646</v>
+        <v>1.035601080865991</v>
       </c>
       <c r="J24">
-        <v>1.003729251431279</v>
+        <v>1.00249666588453</v>
       </c>
       <c r="K24">
-        <v>1.018254314441634</v>
+        <v>1.015491664781398</v>
       </c>
       <c r="L24">
-        <v>0.9969173222465472</v>
+        <v>0.9980035459513107</v>
       </c>
       <c r="M24">
-        <v>1.015396437104479</v>
+        <v>1.014846846326379</v>
       </c>
       <c r="N24">
-        <v>1.005154662097665</v>
+        <v>1.00392032613806</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.020757359972507</v>
+        <v>1.020322383222802</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.024029410392794</v>
+        <v>1.022076018755554</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1652,49 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9883551633266556</v>
+        <v>0.9861497147501261</v>
       </c>
       <c r="D25">
-        <v>1.013465881755529</v>
+        <v>1.009932271583646</v>
       </c>
       <c r="E25">
-        <v>0.9939805336729691</v>
+        <v>0.9938269272660375</v>
       </c>
       <c r="F25">
-        <v>1.009606546978452</v>
+        <v>1.008649341866482</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044007937314003</v>
+        <v>1.038556288604603</v>
       </c>
       <c r="J25">
-        <v>1.013280879880571</v>
+        <v>1.011152358801589</v>
       </c>
       <c r="K25">
-        <v>1.025858692800032</v>
+        <v>1.022378333906418</v>
       </c>
       <c r="L25">
-        <v>1.006673018389107</v>
+        <v>1.00652183411184</v>
       </c>
       <c r="M25">
-        <v>1.022057541857141</v>
+        <v>1.021114855517548</v>
       </c>
       <c r="N25">
-        <v>1.014719854954943</v>
+        <v>1.012588311131884</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.026029306932358</v>
+        <v>1.025283218109539</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.029403318442948</v>
+        <v>1.026942479019218</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_10_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_10_0/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9952502744462589</v>
+        <v>1.030165934569005</v>
       </c>
       <c r="D2">
-        <v>1.01621767805021</v>
+        <v>1.04546846969425</v>
       </c>
       <c r="E2">
-        <v>1.001404801801032</v>
+        <v>1.041329257620473</v>
       </c>
       <c r="F2">
-        <v>1.014564675453792</v>
+        <v>1.049594738533211</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.040685599070602</v>
+        <v>1.061310894788243</v>
       </c>
       <c r="J2">
-        <v>1.017573983053794</v>
+        <v>1.051480358610286</v>
       </c>
       <c r="K2">
-        <v>1.027455605478149</v>
+        <v>1.056328716522933</v>
       </c>
       <c r="L2">
-        <v>1.012844600136518</v>
+        <v>1.05224134110037</v>
       </c>
       <c r="M2">
-        <v>1.025824762866032</v>
+        <v>1.060403817355541</v>
       </c>
       <c r="N2">
-        <v>1.01901905482709</v>
+        <v>1.020412529173569</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.029010864769672</v>
+        <v>1.056377789231141</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.03048361950987</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.050908065098821</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.035603039345116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001633405771969</v>
+        <v>1.033852171110197</v>
       </c>
       <c r="D3">
-        <v>1.020646595585746</v>
+        <v>1.047921473214736</v>
       </c>
       <c r="E3">
-        <v>1.006739449760888</v>
+        <v>1.04419046339818</v>
       </c>
       <c r="F3">
-        <v>1.018736861385258</v>
+        <v>1.052290909556924</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.042166162127505</v>
+        <v>1.062348840381219</v>
       </c>
       <c r="J3">
-        <v>1.022079641324997</v>
+        <v>1.05346068424945</v>
       </c>
       <c r="K3">
-        <v>1.031021942939018</v>
+        <v>1.057975818502019</v>
       </c>
       <c r="L3">
-        <v>1.017286818254202</v>
+        <v>1.054287496750261</v>
       </c>
       <c r="M3">
-        <v>1.029135484850405</v>
+        <v>1.062295736483199</v>
       </c>
       <c r="N3">
-        <v>1.023531111649852</v>
+        <v>1.020962115860435</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.031631116947202</v>
+        <v>1.057875082852985</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.033002699235149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.052069778134337</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.036074943216579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00564718493473</v>
+        <v>1.036197426207405</v>
       </c>
       <c r="D4">
-        <v>1.023433356513541</v>
+        <v>1.049485688703757</v>
       </c>
       <c r="E4">
-        <v>1.010098507286725</v>
+        <v>1.046016560758426</v>
       </c>
       <c r="F4">
-        <v>1.021374877031036</v>
+        <v>1.054012669877438</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.043083481789972</v>
+        <v>1.063000160675075</v>
       </c>
       <c r="J4">
-        <v>1.024907530020405</v>
+        <v>1.054718430200448</v>
       </c>
       <c r="K4">
-        <v>1.033256954509259</v>
+        <v>1.059021412525533</v>
       </c>
       <c r="L4">
-        <v>1.020076561155341</v>
+        <v>1.055589602860186</v>
       </c>
       <c r="M4">
-        <v>1.031221993205959</v>
+        <v>1.063500147952014</v>
       </c>
       <c r="N4">
-        <v>1.026363016271571</v>
+        <v>1.021311415140968</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.033282467115808</v>
+        <v>1.05882827091632</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.034583979851597</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.052810037020865</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.036370862026946</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007317243842678</v>
+        <v>1.037178236156085</v>
       </c>
       <c r="D5">
-        <v>1.024596332870148</v>
+        <v>1.050142701970684</v>
       </c>
       <c r="E5">
-        <v>1.011498687888952</v>
+        <v>1.046782401349981</v>
       </c>
       <c r="F5">
-        <v>1.022473794149526</v>
+        <v>1.05473489668038</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.043464949914988</v>
+        <v>1.063272053019122</v>
       </c>
       <c r="J5">
-        <v>1.026085322703811</v>
+        <v>1.055245724937249</v>
       </c>
       <c r="K5">
-        <v>1.034189302970866</v>
+        <v>1.05946100089303</v>
       </c>
       <c r="L5">
-        <v>1.021239116279662</v>
+        <v>1.056135893406651</v>
       </c>
       <c r="M5">
-        <v>1.032090344978341</v>
+        <v>1.06400554306179</v>
       </c>
       <c r="N5">
-        <v>1.027542481555682</v>
+        <v>1.021458761199181</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.033969715959364</v>
+        <v>1.059228247315439</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.035250457739958</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.053128588805843</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.036494776282738</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007607360709688</v>
+        <v>1.037347451022872</v>
       </c>
       <c r="D6">
-        <v>1.024802166964096</v>
+        <v>1.050258546169692</v>
       </c>
       <c r="E6">
-        <v>1.011743820650546</v>
+        <v>1.046915572785746</v>
       </c>
       <c r="F6">
-        <v>1.022662350032283</v>
+        <v>1.054860386208967</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.043534852743645</v>
+        <v>1.063320907256727</v>
       </c>
       <c r="J6">
-        <v>1.026292884709521</v>
+        <v>1.055338896266602</v>
       </c>
       <c r="K6">
-        <v>1.034356367523116</v>
+        <v>1.059540315609377</v>
       </c>
       <c r="L6">
-        <v>1.021444326309246</v>
+        <v>1.05623219473471</v>
       </c>
       <c r="M6">
-        <v>1.0322402102031</v>
+        <v>1.06409461938965</v>
       </c>
       <c r="N6">
-        <v>1.027750338323249</v>
+        <v>1.021485829155793</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.03408832531409</v>
+        <v>1.059298743482304</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.035377387437106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.053194105718444</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.036517560116583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005700128020808</v>
+        <v>1.036233276476581</v>
       </c>
       <c r="D7">
-        <v>1.023480440526689</v>
+        <v>1.04951689229052</v>
       </c>
       <c r="E7">
-        <v>1.010147931176541</v>
+        <v>1.046048259633702</v>
       </c>
       <c r="F7">
-        <v>1.021402809533337</v>
+        <v>1.054041063420524</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.043106009176979</v>
+        <v>1.06301799019839</v>
       </c>
       <c r="J7">
-        <v>1.024953101612524</v>
+        <v>1.054747678250102</v>
       </c>
       <c r="K7">
-        <v>1.033300592762135</v>
+        <v>1.059049468387752</v>
       </c>
       <c r="L7">
-        <v>1.020122442395433</v>
+        <v>1.055618133555467</v>
       </c>
       <c r="M7">
-        <v>1.031246688676264</v>
+        <v>1.063525443047235</v>
       </c>
       <c r="N7">
-        <v>1.026408652580578</v>
+        <v>1.021349216273318</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.033302012122811</v>
+        <v>1.058848289795412</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.034635088074948</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.052851582083651</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.036380605676018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9974721330780211</v>
+        <v>1.031465091617627</v>
       </c>
       <c r="D8">
-        <v>1.01777187737122</v>
+        <v>1.046342471709012</v>
       </c>
       <c r="E8">
-        <v>1.003267497367979</v>
+        <v>1.042343453667841</v>
       </c>
       <c r="F8">
-        <v>1.016005056278673</v>
+        <v>1.050546074766214</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.041217182960833</v>
+        <v>1.061692353169606</v>
       </c>
       <c r="J8">
-        <v>1.019153918363407</v>
+        <v>1.052198329224903</v>
       </c>
       <c r="K8">
-        <v>1.028716380301553</v>
+        <v>1.056929266848462</v>
       </c>
       <c r="L8">
-        <v>1.014403389493971</v>
+        <v>1.052978849442494</v>
       </c>
       <c r="M8">
-        <v>1.026972506852579</v>
+        <v>1.061082277778338</v>
       </c>
       <c r="N8">
-        <v>1.020601233826072</v>
+        <v>1.020697230308517</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.029919241372446</v>
+        <v>1.056914733483334</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.031398253268764</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.051357424240915</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.035778948374754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9819627840377358</v>
+        <v>1.022692992585308</v>
       </c>
       <c r="D9">
-        <v>1.0070144004791</v>
+        <v>1.040519538247993</v>
       </c>
       <c r="E9">
-        <v>0.9903302692632074</v>
+        <v>1.03556638578781</v>
       </c>
       <c r="F9">
-        <v>1.005965755759694</v>
+        <v>1.044165418965015</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.037531807375675</v>
+        <v>1.059166956487248</v>
       </c>
       <c r="J9">
-        <v>1.008168965446568</v>
+        <v>1.047469088918588</v>
       </c>
       <c r="K9">
-        <v>1.019994689887788</v>
+        <v>1.052987724767161</v>
       </c>
       <c r="L9">
-        <v>1.003582203849265</v>
+        <v>1.048107624262043</v>
       </c>
       <c r="M9">
-        <v>1.018962778619792</v>
+        <v>1.056580395498592</v>
       </c>
       <c r="N9">
-        <v>1.009600681016099</v>
+        <v>1.019393348612474</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.023579954425315</v>
+        <v>1.053351865940331</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.025228034361995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.048567190938795</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.034628016280747</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9711934256921823</v>
+        <v>1.016722841792955</v>
       </c>
       <c r="D10">
-        <v>0.9995960947310283</v>
+        <v>1.036601064167176</v>
       </c>
       <c r="E10">
-        <v>0.9814175584277126</v>
+        <v>1.031021209887975</v>
       </c>
       <c r="F10">
-        <v>0.999307808338715</v>
+        <v>1.039915067583305</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.03495523980686</v>
+        <v>1.057434523466224</v>
       </c>
       <c r="J10">
-        <v>1.000598486383003</v>
+        <v>1.044288329733396</v>
       </c>
       <c r="K10">
-        <v>1.01397264564365</v>
+        <v>1.050339492074903</v>
       </c>
       <c r="L10">
-        <v>0.9961306305600816</v>
+        <v>1.044852079687156</v>
       </c>
       <c r="M10">
-        <v>1.013689571776602</v>
+        <v>1.053599195565898</v>
       </c>
       <c r="N10">
-        <v>1.002019451003917</v>
+        <v>1.018646134924716</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.019459104320567</v>
+        <v>1.051043149411296</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.0209870095158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.046712984771522</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.033842601798946</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9688981845066371</v>
+        <v>1.014688658486654</v>
       </c>
       <c r="D11">
-        <v>0.9982662696000111</v>
+        <v>1.035419771496886</v>
       </c>
       <c r="E11">
-        <v>0.9798358940300251</v>
+        <v>1.02970932499803</v>
       </c>
       <c r="F11">
-        <v>0.9996860962214442</v>
+        <v>1.03891311234402</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.034786665299538</v>
+        <v>1.057013519295678</v>
       </c>
       <c r="J11">
-        <v>0.9996246225418255</v>
+        <v>1.04346288656591</v>
       </c>
       <c r="K11">
-        <v>1.013220955768027</v>
+        <v>1.049703269466659</v>
       </c>
       <c r="L11">
-        <v>0.9951483647012451</v>
+        <v>1.044091903705507</v>
       </c>
       <c r="M11">
-        <v>1.014613934736765</v>
+        <v>1.053136691765745</v>
       </c>
       <c r="N11">
-        <v>1.001044204164382</v>
+        <v>1.018754703427904</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.020636032020053</v>
+        <v>1.051107077115625</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.02048900697856</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.046298672505992</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.033685737608789</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9689650297610367</v>
+        <v>1.014120562962933</v>
       </c>
       <c r="D12">
-        <v>0.9985034994369093</v>
+        <v>1.035151010980452</v>
       </c>
       <c r="E12">
-        <v>0.9801334383428966</v>
+        <v>1.029444312845984</v>
       </c>
       <c r="F12">
-        <v>1.000972780360167</v>
+        <v>1.038833424486452</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.035095916038737</v>
+        <v>1.056966944448021</v>
       </c>
       <c r="J12">
-        <v>1.000143502796248</v>
+        <v>1.043339108937276</v>
       </c>
       <c r="K12">
-        <v>1.013659426305745</v>
+        <v>1.049634397463816</v>
       </c>
       <c r="L12">
-        <v>0.9956514111962698</v>
+        <v>1.044028341910042</v>
       </c>
       <c r="M12">
-        <v>1.016081367134242</v>
+        <v>1.053252628022849</v>
       </c>
       <c r="N12">
-        <v>1.001563821288282</v>
+        <v>1.018897400278003</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.022128882596465</v>
+        <v>1.051520912790463</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.020799031294778</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.04624998011855</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.033688000541893</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9708753776517994</v>
+        <v>1.014651995902258</v>
       </c>
       <c r="D13">
-        <v>0.9999865296545453</v>
+        <v>1.035580690179398</v>
       </c>
       <c r="E13">
-        <v>0.9819165081262011</v>
+        <v>1.029977952781029</v>
       </c>
       <c r="F13">
-        <v>1.003070575244098</v>
+        <v>1.039475856533037</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.035812884080664</v>
+        <v>1.057217678347677</v>
       </c>
       <c r="J13">
-        <v>1.001868274359607</v>
+        <v>1.04375854255169</v>
       </c>
       <c r="K13">
-        <v>1.015069952960299</v>
+        <v>1.050014701152357</v>
       </c>
       <c r="L13">
-        <v>0.9973533281339785</v>
+        <v>1.044510324860251</v>
       </c>
       <c r="M13">
-        <v>1.018095346310777</v>
+        <v>1.053842292520469</v>
       </c>
       <c r="N13">
-        <v>1.003291042225094</v>
+        <v>1.019049099569271</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.024001929427508</v>
+        <v>1.052260615618072</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.021793816683504</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.046516160993329</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.033820533415127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9730146804919559</v>
+        <v>1.015523986969233</v>
       </c>
       <c r="D14">
-        <v>1.001567327135278</v>
+        <v>1.036200378720691</v>
       </c>
       <c r="E14">
-        <v>0.9838087165388361</v>
+        <v>1.030715133990336</v>
       </c>
       <c r="F14">
-        <v>1.004867395892885</v>
+        <v>1.040254461313358</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.036489804919773</v>
+        <v>1.057528930271759</v>
       </c>
       <c r="J14">
-        <v>1.00359215416946</v>
+        <v>1.04429966540593</v>
       </c>
       <c r="K14">
-        <v>1.016476676513812</v>
+        <v>1.050486559818141</v>
       </c>
       <c r="L14">
-        <v>0.9990599549952746</v>
+        <v>1.045096399014799</v>
       </c>
       <c r="M14">
-        <v>1.019714949540894</v>
+        <v>1.054471199255835</v>
       </c>
       <c r="N14">
-        <v>1.00501737014201</v>
+        <v>1.019161895056393</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.025457505081191</v>
+        <v>1.052929324780183</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.022789899916219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.046851303546624</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.033973021341586</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9739633418061392</v>
+        <v>1.015984275811032</v>
       </c>
       <c r="D15">
-        <v>1.002245536372675</v>
+        <v>1.036513425316328</v>
       </c>
       <c r="E15">
-        <v>0.9846183154533834</v>
+        <v>1.03107986028693</v>
       </c>
       <c r="F15">
-        <v>1.005537779606074</v>
+        <v>1.040616211799629</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.036754479496843</v>
+        <v>1.057675912694297</v>
       </c>
       <c r="J15">
-        <v>1.004302952886519</v>
+        <v>1.044559722048729</v>
       </c>
       <c r="K15">
-        <v>1.017053536189281</v>
+        <v>1.050709816842326</v>
       </c>
       <c r="L15">
-        <v>0.9997626790965886</v>
+        <v>1.045369720270518</v>
       </c>
       <c r="M15">
-        <v>1.020284660285416</v>
+        <v>1.054742861567964</v>
       </c>
       <c r="N15">
-        <v>1.005729178274777</v>
+        <v>1.019198727989412</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.025945712334456</v>
+        <v>1.053181237729529</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.023203739977078</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.047015487542201</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.034042375621891</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9780998313693882</v>
+        <v>1.018359837894478</v>
       </c>
       <c r="D16">
-        <v>1.005056465116485</v>
+        <v>1.038058639375314</v>
       </c>
       <c r="E16">
-        <v>0.9879879848850689</v>
+        <v>1.032860747383474</v>
       </c>
       <c r="F16">
-        <v>1.007960017663976</v>
+        <v>1.042280073388935</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.037700131402276</v>
+        <v>1.058352550582229</v>
       </c>
       <c r="J16">
-        <v>1.007130459551467</v>
+        <v>1.045788972772239</v>
       </c>
       <c r="K16">
-        <v>1.019298608521678</v>
+        <v>1.051738367042413</v>
       </c>
       <c r="L16">
-        <v>1.002540233822447</v>
+        <v>1.04662598675913</v>
       </c>
       <c r="M16">
-        <v>1.022150763654738</v>
+        <v>1.055891159029249</v>
       </c>
       <c r="N16">
-        <v>1.008560700323508</v>
+        <v>1.019311460646269</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.027381560721187</v>
+        <v>1.054050509978426</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.024794337391042</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.047746094038275</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.034346704210868</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9801732310916691</v>
+        <v>1.019735782983244</v>
       </c>
       <c r="D17">
-        <v>1.006401237956918</v>
+        <v>1.038926689935769</v>
       </c>
       <c r="E17">
-        <v>0.9896027508079814</v>
+        <v>1.033849255138212</v>
       </c>
       <c r="F17">
-        <v>1.008890460963101</v>
+        <v>1.043151691721687</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.038075611391665</v>
+        <v>1.058710501988843</v>
       </c>
       <c r="J17">
-        <v>1.008415237707525</v>
+        <v>1.046456114609814</v>
       </c>
       <c r="K17">
-        <v>1.020297953532623</v>
+        <v>1.052284963459923</v>
       </c>
       <c r="L17">
-        <v>1.003795570938706</v>
+        <v>1.047288719653546</v>
       </c>
       <c r="M17">
-        <v>1.022744383409039</v>
+        <v>1.05644317611172</v>
       </c>
       <c r="N17">
-        <v>1.009847303011914</v>
+        <v>1.019367857002213</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.02772040175753</v>
+        <v>1.054359123082607</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.025503550892892</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.048135334233287</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.034501039572417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9805753817578861</v>
+        <v>1.02034889821348</v>
       </c>
       <c r="D18">
-        <v>1.006534394317623</v>
+        <v>1.039258252845732</v>
       </c>
       <c r="E18">
-        <v>0.9897679104265064</v>
+        <v>1.034206741111946</v>
       </c>
       <c r="F18">
-        <v>1.008430456386381</v>
+        <v>1.043371419152292</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.037958918828612</v>
+        <v>1.058806498578409</v>
       </c>
       <c r="J18">
-        <v>1.008392859951331</v>
+        <v>1.046664593927602</v>
       </c>
       <c r="K18">
-        <v>1.020241280867451</v>
+        <v>1.052432080613533</v>
       </c>
       <c r="L18">
-        <v>1.003765631813137</v>
+        <v>1.047460036240046</v>
       </c>
       <c r="M18">
-        <v>1.022105238768414</v>
+        <v>1.05648126703903</v>
       </c>
       <c r="N18">
-        <v>1.00982489347674</v>
+        <v>1.01932953609019</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.026974569046101</v>
+        <v>1.054154302073819</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.025451674801169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.048226781411778</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.03452831115139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9794833323881962</v>
+        <v>1.020279073665191</v>
       </c>
       <c r="D19">
-        <v>1.00561023245966</v>
+        <v>1.03911737752289</v>
       </c>
       <c r="E19">
-        <v>0.9886499135336199</v>
+        <v>1.033999744150143</v>
       </c>
       <c r="F19">
-        <v>1.006619480660289</v>
+        <v>1.043006921813631</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.037427519166324</v>
+        <v>1.05867444535849</v>
       </c>
       <c r="J19">
-        <v>1.007205178643713</v>
+        <v>1.046466978761132</v>
       </c>
       <c r="K19">
-        <v>1.019268795974836</v>
+        <v>1.052232296283238</v>
       </c>
       <c r="L19">
-        <v>1.002601870325101</v>
+        <v>1.047194777147836</v>
       </c>
       <c r="M19">
-        <v>1.020260987462317</v>
+        <v>1.056061622835233</v>
       </c>
       <c r="N19">
-        <v>1.008635525525436</v>
+        <v>1.019195428970808</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.025185908344122</v>
+        <v>1.0535012776949</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.024770573158477</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.04809244063015</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.034446580662748</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9741088336031942</v>
+        <v>1.018280535651217</v>
       </c>
       <c r="D20">
-        <v>1.001631579293798</v>
+        <v>1.037636440085604</v>
       </c>
       <c r="E20">
-        <v>0.9838457927816906</v>
+        <v>1.032209486310147</v>
       </c>
       <c r="F20">
-        <v>1.001097015349709</v>
+        <v>1.04102946574183</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.035688735378662</v>
+        <v>1.057897875356067</v>
       </c>
       <c r="J20">
-        <v>1.002675637441912</v>
+        <v>1.045124516874561</v>
       </c>
       <c r="K20">
-        <v>1.015645799889527</v>
+        <v>1.051048278344672</v>
       </c>
       <c r="L20">
-        <v>0.9981787691336284</v>
+        <v>1.045708666787645</v>
       </c>
       <c r="M20">
-        <v>1.015120602453908</v>
+        <v>1.054387288730285</v>
       </c>
       <c r="N20">
-        <v>1.004099551855582</v>
+        <v>1.01877987055865</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.020580845662565</v>
+        <v>1.051656441097153</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.022212920284423</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.047259571499521</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.034055720954972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9654131761631811</v>
+        <v>1.013817777016729</v>
       </c>
       <c r="D21">
-        <v>0.9956035640611864</v>
+        <v>1.034696359884276</v>
       </c>
       <c r="E21">
-        <v>0.9766046849266961</v>
+        <v>1.028800947207561</v>
       </c>
       <c r="F21">
-        <v>0.9954026363338381</v>
+        <v>1.037782274978642</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.033510283988585</v>
+        <v>1.056583098351155</v>
       </c>
       <c r="J21">
-        <v>0.9964316732129064</v>
+        <v>1.042748931033799</v>
       </c>
       <c r="K21">
-        <v>1.010668709731324</v>
+        <v>1.049048921867011</v>
       </c>
       <c r="L21">
-        <v>0.9920432708988645</v>
+        <v>1.043256476081965</v>
       </c>
       <c r="M21">
-        <v>1.010471633793799</v>
+        <v>1.05208154268738</v>
       </c>
       <c r="N21">
-        <v>0.9978467204811794</v>
+        <v>1.018552495191501</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.016859586234707</v>
+        <v>1.049791379176645</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.018697138985395</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.045849506363952</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.033455577993901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9598620800228568</v>
+        <v>1.010975497163426</v>
       </c>
       <c r="D22">
-        <v>0.9917649385706827</v>
+        <v>1.03283186074693</v>
       </c>
       <c r="E22">
-        <v>0.97200206607797</v>
+        <v>1.026649417701885</v>
       </c>
       <c r="F22">
-        <v>0.9919118400087666</v>
+        <v>1.035748608394521</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.032116613367833</v>
+        <v>1.055741243899382</v>
       </c>
       <c r="J22">
-        <v>0.9924709516625573</v>
+        <v>1.041241410710676</v>
       </c>
       <c r="K22">
-        <v>1.007501318090803</v>
+        <v>1.047779812850456</v>
       </c>
       <c r="L22">
-        <v>0.9881493473653098</v>
+        <v>1.04171080673113</v>
       </c>
       <c r="M22">
-        <v>1.007645245951958</v>
+        <v>1.050643654619778</v>
       </c>
       <c r="N22">
-        <v>0.9938803742519278</v>
+        <v>1.018405856093872</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.0146226093105</v>
+        <v>1.048653400733325</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.016443769522117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.04493763347818</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.033071675875004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9627895986948318</v>
+        <v>1.012460162527008</v>
       </c>
       <c r="D23">
-        <v>0.9937783009631265</v>
+        <v>1.033798153175422</v>
       </c>
       <c r="E23">
-        <v>0.9744220245630342</v>
+        <v>1.027767037308335</v>
       </c>
       <c r="F23">
-        <v>0.9937572405413511</v>
+        <v>1.036807701764149</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.032841982962497</v>
+        <v>1.05617378089426</v>
       </c>
       <c r="J23">
-        <v>0.9945516569140939</v>
+        <v>1.042017362213449</v>
       </c>
       <c r="K23">
-        <v>1.009158331296115</v>
+        <v>1.048430515483533</v>
       </c>
       <c r="L23">
-        <v>0.9901927893773979</v>
+        <v>1.042507232531428</v>
       </c>
       <c r="M23">
-        <v>1.009137685150683</v>
+        <v>1.051386863311668</v>
       </c>
       <c r="N23">
-        <v>0.9959640343435817</v>
+        <v>1.018432086255459</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.015803818300413</v>
+        <v>1.049241593793561</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.017605534470805</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.045387267909653</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.033267365081272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9739579357475667</v>
+        <v>1.018282829467897</v>
       </c>
       <c r="D24">
-        <v>1.00149067662107</v>
+        <v>1.037615361517394</v>
       </c>
       <c r="E24">
-        <v>0.9836837083422951</v>
+        <v>1.032185670275409</v>
       </c>
       <c r="F24">
-        <v>1.000834367286103</v>
+        <v>1.040984893759956</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.035601080865991</v>
+        <v>1.057875495321519</v>
       </c>
       <c r="J24">
-        <v>1.00249666588453</v>
+        <v>1.045094817456375</v>
       </c>
       <c r="K24">
-        <v>1.015491664781398</v>
+        <v>1.051012611825666</v>
       </c>
       <c r="L24">
-        <v>0.9980035459513107</v>
+        <v>1.045670200174622</v>
       </c>
       <c r="M24">
-        <v>1.014846846326379</v>
+        <v>1.054328566851984</v>
       </c>
       <c r="N24">
-        <v>1.00392032613806</v>
+        <v>1.018754470678385</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.020322383222802</v>
+        <v>1.051569723486482</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.022076018755554</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.047204739349721</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.034040562592572</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9861497147501261</v>
+        <v>1.025011228359266</v>
       </c>
       <c r="D25">
-        <v>1.009932271583646</v>
+        <v>1.042063827519235</v>
       </c>
       <c r="E25">
-        <v>0.9938269272660375</v>
+        <v>1.037354582004722</v>
       </c>
       <c r="F25">
-        <v>1.008649341866482</v>
+        <v>1.045848753962712</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.038556288604603</v>
+        <v>1.059848012754788</v>
       </c>
       <c r="J25">
-        <v>1.011152358801589</v>
+        <v>1.048725218631601</v>
       </c>
       <c r="K25">
-        <v>1.022378333906418</v>
+        <v>1.054042453667014</v>
       </c>
       <c r="L25">
-        <v>1.00652183411184</v>
+        <v>1.049399426528727</v>
       </c>
       <c r="M25">
-        <v>1.021114855517548</v>
+        <v>1.057774704100446</v>
       </c>
       <c r="N25">
-        <v>1.012588311131884</v>
+        <v>1.019712407729679</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.025283218109539</v>
+        <v>1.054297064065359</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.026942479019218</v>
+        <v>1.049343799554671</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.03494045436671</v>
       </c>
     </row>
   </sheetData>
